--- a/IEC/DeAntonellis2017.xlsx
+++ b/IEC/DeAntonellis2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\EC-generic-model\Database_for_model_validation\IEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\OSD-ECMTest\IEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3692D8-F738-4D1B-B7F1-E47EE5E03A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7394E9-3B91-4044-B691-36B818DE2800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
   </bookViews>
   <sheets>
     <sheet name="DeAntonellis2017" sheetId="7" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
   <dimension ref="B1:AA91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
